--- a/testData/Book 7.xlsx
+++ b/testData/Book 7.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
   <si>
     <t>Nikita</t>
   </si>
@@ -229,6 +229,9 @@
     <t>lakshmi@yahoo.com</t>
   </si>
   <si>
+    <t>laksh</t>
+  </si>
+  <si>
     <t>laksh@yahoo.com</t>
   </si>
   <si>
@@ -238,7 +241,7 @@
     <t>vijidevi@gmail.com</t>
   </si>
   <si>
-    <t>laki@234</t>
+    <t>invalid</t>
   </si>
   <si>
     <t>VijiDevi@278374</t>
@@ -250,10 +253,10 @@
     <t>pwd</t>
   </si>
   <si>
-    <t>laksh@485</t>
-  </si>
-  <si>
     <t>laxmi@456</t>
+  </si>
+  <si>
+    <t>laki</t>
   </si>
 </sst>
 </file>
@@ -1026,10 +1029,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B1" s="21" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C1" s="21" t="s">
         <v>42</v>
@@ -1059,32 +1062,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>54</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="3" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>45</v>
@@ -1098,9 +1101,9 @@
     <hyperlink ref="A4" r:id="rId4"/>
     <hyperlink ref="A5" r:id="rId5"/>
     <hyperlink ref="A6" r:id="rId6"/>
-    <hyperlink ref="B5" r:id="rId7"/>
+    <hyperlink ref="B5" r:id="rId7" display="laki@234"/>
     <hyperlink ref="B6" r:id="rId8"/>
-    <hyperlink ref="B4" r:id="rId9"/>
+    <hyperlink ref="B4" r:id="rId9" display="laksh@485"/>
     <hyperlink ref="B3" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
